--- a/biology/Médecine/Berufsgenossenschaftliche_Kliniken_Bergmannstrost_Halle/Berufsgenossenschaftliche_Kliniken_Bergmannstrost_Halle.xlsx
+++ b/biology/Médecine/Berufsgenossenschaftliche_Kliniken_Bergmannstrost_Halle/Berufsgenossenschaftliche_Kliniken_Bergmannstrost_Halle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Berufsgenossenschaftliche Kliniken Bergmannstrost Halle, Saxe-Anhalt est un centre hospitalier universitaire allemand.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la fin du XIXe siècle, ingénieur des mines, Bernhard Leopold a initié la construction de l'hôpital Bergmannstrost pour la protection de la santé en cas d'accident et de maladie des mineurs de ces régions. Le bâtiment est un monument culturel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin du XIXe siècle, ingénieur des mines, Bernhard Leopold a initié la construction de l'hôpital Bergmannstrost pour la protection de la santé en cas d'accident et de maladie des mineurs de ces régions. Le bâtiment est un monument culturel.
 </t>
         </is>
       </c>
@@ -540,15 +554,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Priorités</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Centre de traumatologie
-Centre de brûlures
-Centre de traumatisme médullaire
-Interdisciplinaire de réadaptation précoce</t>
+          <t>Départements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1 Aide à la  l'adaptation de l'individu à la nouvelle situation, comprenant la prise en charge de la douleur, thérapie de dépression réactive ou Trouble de stress post-traumatique sont au cœur des travaux du Département de psychologie médicale en coopération avec toutes les cliniques et les départements. Une partie du spectre d'activité est également accompagnement pour parenté et les médical personnel.
+</t>
         </is>
       </c>
     </row>
@@ -573,42 +588,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Départements</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-1 Aide à la  l'adaptation de l'individu à la nouvelle situation, comprenant la prise en charge de la douleur, thérapie de dépression réactive ou Trouble de stress post-traumatique sont au cœur des travaux du Département de psychologie médicale en coopération avec toutes les cliniques et les départements. Une partie du spectre d'activité est également accompagnement pour parenté et les médical personnel.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Berufsgenossenschaftliche_Kliniken_Bergmannstrost_Halle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Berufsgenossenschaftliche_Kliniken_Bergmannstrost_Halle</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Directeurs de l'hôpital</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1894-1920 Maximilian Oberst
 1920-1933 Sanitätsrat Herrmann Zimmermann
